--- a/example_data/EPA/label_corrected/067760-00105-20150715_2018-12-07_211637.xlsx
+++ b/example_data/EPA/label_corrected/067760-00105-20150715_2018-12-07_211637.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Use Restrictions</t>
+          <t>safety procedures || use restrictions || chemigation</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G282" t="inlineStr"/>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G285" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Chemigation || Application Instructions</t>
+          <t>application instructions || chemigation</t>
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G292" t="inlineStr"/>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G294" t="inlineStr"/>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G306" t="inlineStr"/>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G308" t="inlineStr"/>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G317" t="inlineStr"/>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G321" t="inlineStr"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G329" t="inlineStr"/>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G331" t="inlineStr"/>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G334" t="inlineStr"/>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G343" t="inlineStr"/>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G346" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G352" t="inlineStr"/>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G357" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G360" t="inlineStr"/>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G362" t="inlineStr"/>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G363" t="inlineStr"/>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G364" t="inlineStr"/>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G365" t="inlineStr"/>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G366" t="inlineStr"/>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G367" t="inlineStr"/>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G369" t="inlineStr"/>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G374" t="inlineStr"/>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G383" t="inlineStr"/>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G387" t="inlineStr"/>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G388" t="inlineStr"/>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G389" t="inlineStr"/>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G392" t="inlineStr"/>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G394" t="inlineStr"/>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G399" t="inlineStr"/>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G401" t="inlineStr"/>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G403" t="inlineStr"/>
@@ -12424,7 +12424,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G415" t="inlineStr"/>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G430" t="inlineStr"/>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G433" t="inlineStr"/>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G434" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G436" t="inlineStr"/>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G437" t="inlineStr"/>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G439" t="inlineStr"/>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G443" t="inlineStr"/>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G444" t="inlineStr"/>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G449" t="inlineStr"/>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G455" t="inlineStr"/>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G456" t="inlineStr"/>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G457" t="inlineStr"/>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G459" t="inlineStr"/>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G460" t="inlineStr"/>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G461" t="inlineStr"/>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G462" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G463" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G464" t="inlineStr"/>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G469" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G477" t="inlineStr"/>
